--- a/Excel_files/ambulance.xlsx
+++ b/Excel_files/ambulance.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>City</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>070705 69645</t>
+  </si>
+  <si>
+    <t>solapur</t>
+  </si>
+  <si>
+    <t>SHREE GANESH AMBULANCE SERVICE</t>
+  </si>
+  <si>
+    <t>096234 96444</t>
+  </si>
+  <si>
+    <t>Jadhav ambulance</t>
+  </si>
+  <si>
+    <t>098222 11881</t>
+  </si>
+  <si>
+    <t>Mane Ambulance</t>
+  </si>
+  <si>
+    <t>098504 06358</t>
   </si>
 </sst>
 </file>
@@ -559,6 +580,39 @@
         <v>34</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
